--- a/Test Matrics.xlsx
+++ b/Test Matrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A0E4543-D26E-4606-9AEB-D47B6283FB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7B58F9-0800-4E53-ACFE-4ECCFA8DD0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{90BAE0A7-0D4A-4EE5-8E33-6AA057CF685B}"/>
   </bookViews>
@@ -234,9 +234,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -257,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132B22FD-91FC-476C-809F-E9DD4658CFD9}">
   <dimension ref="C2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,184 +588,184 @@
   <sheetData>
     <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="3:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="3:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="3:6" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>6</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>11</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
